--- a/Website/src/test/java/TestData/datadrivenbilling.xlsx
+++ b/Website/src/test/java/TestData/datadrivenbilling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UjjwalShrivastava\git\PracticeJavaAutomation\Website\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90078BDE-DFE0-46FC-B960-B1DF19F9DDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6CDCC6-A515-4109-B0C5-2742F8F743DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{50E204E2-8051-453B-8EA6-4DF7CC441F8D}"/>
   </bookViews>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9D283E-16F7-452E-B267-8500616E8217}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Website/src/test/java/TestData/datadrivenbilling.xlsx
+++ b/Website/src/test/java/TestData/datadrivenbilling.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UjjwalShrivastava\git\PracticeJavaAutomation\Website\src\test\java\TestData\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Milton</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Laptaganj America</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9D283E-16F7-452E-B267-8500616E8217}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
@@ -523,15 +526,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="12.0"/>
+    <col min="3" max="3" customWidth="true" width="8.42578125"/>
+    <col min="4" max="4" customWidth="true" width="18.85546875"/>
+    <col min="5" max="5" customWidth="true" width="34.85546875"/>
+    <col min="6" max="6" customWidth="true" style="1" width="20.0"/>
+    <col min="7" max="7" customWidth="true" width="26.0"/>
+    <col min="8" max="8" customWidth="true" width="26.5703125"/>
+    <col min="9" max="9" customWidth="true" style="1" width="13.7109375"/>
+    <col min="10" max="10" customWidth="true" width="20.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -562,6 +565,9 @@
       <c r="I1" s="1">
         <v>142111</v>
       </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -588,6 +594,9 @@
       <c r="I2" s="1">
         <v>142111</v>
       </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -614,6 +623,9 @@
       <c r="I3" s="1">
         <v>14211</v>
       </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -640,6 +652,9 @@
       <c r="I4" s="1">
         <v>123123</v>
       </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -669,6 +684,9 @@
       <c r="I5" s="1">
         <v>2333121</v>
       </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -698,6 +716,9 @@
       <c r="I6" s="1">
         <v>121678</v>
       </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -723,6 +744,9 @@
       </c>
       <c r="I7" s="1">
         <v>121679</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
